--- a/group_5_project/excel_files/rnd_vns.xlsx
+++ b/group_5_project/excel_files/rnd_vns.xlsx
@@ -405,10 +405,10 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>9.531656174840322</v>
+        <v>10.65733364971407</v>
       </c>
       <c r="D2">
-        <v>68.18681424199997</v>
+        <v>71.31256788600001</v>
       </c>
     </row>
   </sheetData>
